--- a/данные/user_import.xlsx
+++ b/данные/user_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT6\данные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\Kt6_MatvienkoVarvara_ISP321\данные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="244">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -761,6 +761,12 @@
   </si>
   <si>
     <t>CLIENT</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>STATYS</t>
   </si>
 </sst>
 </file>
@@ -821,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -855,28 +861,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -902,12 +925,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,7 +1273,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1266,366 +1313,366 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
         <f>LOOKUP(C2,$M$2:$M$4,$L$2:$L$4)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="25" t="str">
         <f>CLEAN(G2)</f>
         <v>pixil59@gmail.com</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="23">
         <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">LOOKUP(C3,$M$2:$M$4,$L$2:$L$4)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <f>LOOKUP(C3,$M$2:$M$4,$L$2:$L$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H11" si="1">CLEAN(G3)</f>
+      <c r="H3" s="25" t="str">
+        <f>CLEAN(G3)</f>
         <v>deummecillummu-4992@mail.ru</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="23">
         <v>1</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="23">
+        <f>LOOKUP(C4,$M$2:$M$4,$L$2:$L$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H4" s="25" t="str">
+        <f>CLEAN(G4)</f>
         <v>vilagajaunne-5170@yandex.ru</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="23">
         <v>1</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
+      <c r="B5" s="23">
+        <f>LOOKUP(C5,$M$2:$M$4,$L$2:$L$4)</f>
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H5" s="25" t="str">
+        <f>CLEAN(G5)</f>
         <v>frusubroppotou656@yandex.ru</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
+      <c r="B6" s="23">
+        <f>LOOKUP(C6,$M$2:$M$4,$L$2:$L$4)</f>
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H6" s="25" t="str">
+        <f>CLEAN(G6)</f>
         <v>leuttevitrafo1998@mail.ru</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
+      <c r="B7" s="23">
+        <f>LOOKUP(C7,$M$2:$M$4,$L$2:$L$4)</f>
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H7" s="25" t="str">
+        <f>CLEAN(G7)</f>
         <v>frapreubrulloba1141@yandex.ru</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="23">
+        <f>LOOKUP(C8,$M$2:$M$4,$L$2:$L$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H8" s="25" t="str">
+        <f>CLEAN(G8)</f>
         <v>loudittoimmolau1900@gmail.com</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="23">
+        <f>LOOKUP(C9,$M$2:$M$4,$L$2:$L$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H9" s="25" t="str">
+        <f>CLEAN(G9)</f>
         <v>hittuprofassa4984@mail.com</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="23">
+        <f>LOOKUP(C10,$M$2:$M$4,$L$2:$L$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H10" s="25" t="str">
+        <f>CLEAN(G10)</f>
         <v>freineiciweijau888@yandex.ru</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="23">
+        <f>LOOKUP(C11,$M$2:$M$4,$L$2:$L$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="H11" s="25" t="str">
+        <f>CLEAN(G11)</f>
         <v>nokupekidda2001@gmail.com</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="23">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="M2:M4">
-    <sortCondition ref="M2"/>
+  <sortState ref="A3:J11">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1643,7 +1690,7 @@
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.625" bestFit="1" customWidth="1"/>
@@ -1654,68 +1701,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="13">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="10">
         <v>44687</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <v>44693</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>601</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="M2">
@@ -1725,52 +1772,52 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10">
         <v>44687</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>44693</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>20</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>602</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>71</v>
       </c>
       <c r="M4">
@@ -1780,35 +1827,35 @@
       <c r="R4">
         <v>2</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="13">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10">
         <v>44689</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>44695</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>22</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>603</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M5">
@@ -1817,48 +1864,48 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="13">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10">
         <v>44689</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>44695</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>24</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>604</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M7">
@@ -1867,48 +1914,48 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="13">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10">
         <v>44691</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <v>44697</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>605</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M9">
@@ -1917,49 +1964,49 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="13">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10">
         <v>44692</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>44698</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>28</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <f>LOOKUP(J11,пользователи!$D$2:$F$11,пользователи!$A$2:$A$11)</f>
         <v>7</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="5">
         <v>606</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M11">
@@ -1968,64 +2015,64 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="13">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10">
         <v>44693</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>44699</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>36</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>607</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="M14">
@@ -2034,48 +2081,48 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="13">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10">
         <v>44694</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>44700</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="5">
         <v>608</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="M16">
@@ -2084,48 +2131,48 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10">
         <v>44696</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <v>44702</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>34</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>609</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="5" t="s">
         <v>71</v>
       </c>
       <c r="M18">
@@ -2134,33 +2181,33 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="13">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10">
         <v>44696</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <v>44702</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>36</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <f>LOOKUP(J19,пользователи!$D$2:$F$11,пользователи!$A$2:$A$11)</f>
         <v>7</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <v>610</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M19">
@@ -2169,17 +2216,17 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="16"/>
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="3" t="s">
         <v>96</v>
       </c>
       <c r="R20">
@@ -2196,10 +2243,10 @@
       <c r="N21">
         <v>2</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="5" t="s">
         <v>111</v>
       </c>
       <c r="R21">
@@ -2216,10 +2263,10 @@
       <c r="N22">
         <v>3</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="5" t="s">
         <v>121</v>
       </c>
       <c r="R22">
@@ -2236,10 +2283,10 @@
       <c r="N23">
         <v>4</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="5" t="s">
         <v>128</v>
       </c>
       <c r="R23">
@@ -2256,10 +2303,10 @@
       <c r="N24">
         <v>5</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="5" t="s">
         <v>138</v>
       </c>
       <c r="R24">
@@ -2276,10 +2323,10 @@
       <c r="N25">
         <v>6</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="5" t="s">
         <v>149</v>
       </c>
       <c r="R25">
@@ -2296,10 +2343,10 @@
       <c r="N26">
         <v>7</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="5" t="s">
         <v>160</v>
       </c>
       <c r="R26">
@@ -2316,10 +2363,10 @@
       <c r="N27">
         <v>8</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="5" t="s">
         <v>168</v>
       </c>
       <c r="R27">
@@ -2336,10 +2383,10 @@
       <c r="N28">
         <v>9</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="5" t="s">
         <v>170</v>
       </c>
       <c r="R28">
@@ -2356,10 +2403,10 @@
       <c r="N29">
         <v>10</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="5" t="s">
         <v>188</v>
       </c>
       <c r="R29">
@@ -2376,7 +2423,7 @@
       <c r="N30">
         <v>11</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2384,7 +2431,7 @@
       <c r="N31">
         <v>12</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2392,7 +2439,7 @@
       <c r="N32">
         <v>13</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2400,7 +2447,7 @@
       <c r="N33">
         <v>14</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2408,7 +2455,7 @@
       <c r="N34">
         <v>15</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2416,7 +2463,7 @@
       <c r="N35">
         <v>16</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2424,7 +2471,7 @@
       <c r="N36">
         <v>17</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2432,7 +2479,7 @@
       <c r="N37">
         <v>18</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2440,7 +2487,7 @@
       <c r="N38">
         <v>19</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2448,7 +2495,7 @@
       <c r="N39">
         <v>20</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2456,7 +2503,7 @@
       <c r="N40">
         <v>21</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2464,7 +2511,7 @@
       <c r="N41">
         <v>22</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2472,7 +2519,7 @@
       <c r="N42">
         <v>23</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2480,7 +2527,7 @@
       <c r="N43">
         <v>24</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2488,7 +2535,7 @@
       <c r="N44">
         <v>25</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2496,7 +2543,7 @@
       <c r="N45">
         <v>26</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2504,7 +2551,7 @@
       <c r="N46">
         <v>27</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2512,7 +2559,7 @@
       <c r="N47">
         <v>28</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2520,7 +2567,7 @@
       <c r="N48">
         <v>29</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2528,7 +2575,7 @@
       <c r="N49">
         <v>30</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="O49" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2543,379 +2590,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="P2" sqref="P2:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="47.25">
+      <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="J1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="63">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="R1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:20" ht="63">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>44687</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>44693</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>25</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>601</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <f>LOOKUP(I2,$O$2:$O$3,$N$2:$N$3)</f>
         <v>2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="3">
+        <f>LOOKUP(R2,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="T2" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>44687</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>44693</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>20</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>602</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J11" si="0">LOOKUP(I3,$O$2:$O$3,$N$2:$N$3)</f>
         <v>2</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="8">
+      <c r="P3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="3">
+        <f>LOOKUP(R3,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>10</v>
+      </c>
+      <c r="T3" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>44689</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>44695</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>603</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="8">
+      <c r="P4" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="3">
+        <f>LOOKUP(R4,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="T4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>44689</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>44695</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>24</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>604</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="8">
+      <c r="P5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>4</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="3">
+        <f>LOOKUP(R5,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>11</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>44691</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>44697</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>25</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>605</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="8">
+      <c r="P6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="3">
+        <f>LOOKUP(R6,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>23</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>44692</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>44698</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>28</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>606</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="8">
+      <c r="P7" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="3">
+        <f>LOOKUP(R7,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>16</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>44693</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>44699</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>36</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>607</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="8">
+      <c r="P8" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>7</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="3">
+        <f>LOOKUP(R8,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>14</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>44694</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>44700</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>32</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>608</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="8">
+      <c r="P9" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>8</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="S9" s="3">
+        <f>LOOKUP(R9,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>19</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>44696</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <v>44702</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>34</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>609</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="8">
+      <c r="P10" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="S10" s="3">
+        <f>LOOKUP(R10,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="10">
         <v>44696</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>44702</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>36</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5">
+        <v>610</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>10</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S11" s="3">
+        <f>LOOKUP(R11,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>21</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="P12" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="3">
+        <f>LOOKUP(R12,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>12</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="P13" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S13" s="3">
+        <f>LOOKUP(R13,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>29</v>
+      </c>
+      <c r="T13" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="P14" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" s="3">
+        <f>LOOKUP(R14,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>25</v>
+      </c>
+      <c r="T14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="P15" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>4</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="3">
+        <f>LOOKUP(R15,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>5</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="P16" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>5</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S16" s="3">
+        <f>LOOKUP(R16,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>6</v>
+      </c>
+      <c r="T16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="16:20">
+      <c r="P17" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>6</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" s="3">
+        <f>LOOKUP(R17,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>4</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="16:20">
+      <c r="P18" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="8">
-        <v>610</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
+      <c r="R18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="S18" s="3">
+        <f>LOOKUP(R18,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>22</v>
+      </c>
+      <c r="T18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="16:20">
+      <c r="P19" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>8</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="S19" s="3">
+        <f>LOOKUP(R19,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="16:20">
+      <c r="P20" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>9</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20" s="3">
+        <f>LOOKUP(R20,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>20</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="16:20">
+      <c r="P21" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>10</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S21" s="3">
+        <f>LOOKUP(R21,Товары_import!$B$2:$B$31,Товары_import!$A$2:$A$31)</f>
+        <v>28</v>
+      </c>
+      <c r="T21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2924,6 +3321,7 @@
     <sortCondition ref="O1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2932,7 +3330,7 @@
   <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+      <selection activeCell="A2" sqref="A2:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2961,70 +3359,73 @@
       <c r="A1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="S1" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3032,90 +3433,93 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3">
         <f>LOOKUP(D2,$AM$2:$AM$9,$AL$2:$AL$9)</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="3">
         <f>LOOKUP(F2,$AR$2,$AQ$2)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="5">
-        <v>123</v>
-      </c>
-      <c r="H2" s="5">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="G2" s="3">
+        <v>400</v>
+      </c>
+      <c r="H2" s="3">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
         <f>LOOKUP(J2,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="3">
+        <f>LOOKUP(L2,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="3">
+        <f>LOOKUP(M2,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="5">
-        <f>LOOKUP(L2,$AH$2:$AH$3,$AG$2:$AG$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="23">
+        <v>1</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="5">
-        <f>LOOKUP(M2,$X$2:$X$4,$W$2:$W$4)</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>3</v>
-      </c>
-      <c r="P2" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AL2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="24" t="s">
         <v>134</v>
       </c>
       <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AR2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3123,239 +3527,248 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C31" si="0">LOOKUP(D3,$AM$2:$AM$9,$AL$2:$AL$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E31" si="1">LOOKUP(F3,$AR$2,$AQ$2)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="3">
+        <f>LOOKUP(D3,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3">
+        <f>LOOKUP(F3,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="5">
-        <v>149</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="3">
+        <v>600</v>
+      </c>
+      <c r="H3" s="3">
         <v>15</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I31" si="2">LOOKUP(J3,$AB$2:$AB$14,$AA$2:$AA$14)</f>
-        <v>12</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K31" si="3">LOOKUP(L3,$AH$2:$AH$3,$AG$2:$AG$3)</f>
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="3">
+        <f>LOOKUP(J3,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="3">
+        <f>LOOKUP(L3,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="3">
+        <f>LOOKUP(M3,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="23">
+        <v>2</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N31" si="4">LOOKUP(M3,$X$2:$X$4,$W$2:$W$4)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AL3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="AR3" s="17"/>
+      <c r="AR3" s="14"/>
     </row>
     <row r="4" spans="1:44" ht="31.5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="3">
+        <f>LOOKUP(D4,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3">
+        <f>LOOKUP(F4,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="5">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="3">
+        <v>600</v>
+      </c>
+      <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="I4" s="3">
+        <f>LOOKUP(J4,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="3">
+        <f>LOOKUP(L4,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="3">
+        <f>LOOKUP(M4,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="P4" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W4">
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="23">
         <v>3</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="23">
         <v>3</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="AH4" s="17"/>
-      <c r="AL4">
+      <c r="AH4" s="14"/>
+      <c r="AL4" s="23">
         <v>3</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AM4" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="31.5">
+    <row r="5" spans="1:44" ht="47.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="3">
+        <f>LOOKUP(D5,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="3">
+        <f>LOOKUP(F5,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="5">
-        <v>86</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="2"/>
+      <c r="G5" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H5" s="3">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3">
+        <f>LOOKUP(J5,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="3">
+        <f>LOOKUP(L5,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="3">
+        <f>LOOKUP(M5,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="Q5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="AA5" s="23">
         <v>4</v>
       </c>
-      <c r="P5" s="5">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="X5" s="17"/>
-      <c r="AA5">
+      <c r="AB5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL5" s="23">
         <v>4</v>
       </c>
-      <c r="AB5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL5">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3363,72 +3776,75 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3">
+        <f>LOOKUP(D6,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3">
+        <f>LOOKUP(F6,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="5">
-        <v>166</v>
-      </c>
-      <c r="H6" s="5">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="G6" s="3">
+        <v>199</v>
+      </c>
+      <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="P6" s="5">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA6">
+      <c r="I6" s="3">
+        <f>LOOKUP(J6,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>5</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AL6">
+      <c r="K6" s="3">
+        <f>LOOKUP(L6,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="3">
+        <f>LOOKUP(M6,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
         <v>5</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="P6" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="24" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3436,72 +3852,75 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3">
+        <f>LOOKUP(D7,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3">
+        <f>LOOKUP(F7,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="5">
-        <v>1700</v>
-      </c>
-      <c r="H7" s="5">
-        <v>25</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="G7" s="3">
+        <v>170</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <f>LOOKUP(J7,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="3">
+        <f>LOOKUP(L7,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N7" s="5">
-        <f t="shared" si="4"/>
+      <c r="N7" s="3">
+        <f>LOOKUP(M7,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O7" s="5">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="3">
         <v>5</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA7">
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA7" s="23">
         <v>6</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="23">
         <v>6</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AM7" s="24" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3509,72 +3928,75 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="3">
+        <f>LOOKUP(D8,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3">
+        <f>LOOKUP(F8,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="5">
-        <v>300</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="G8" s="3">
+        <v>140</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
+        <f>LOOKUP(J8,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="3">
+        <f>LOOKUP(L8,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="5">
-        <f t="shared" si="4"/>
+      <c r="N8" s="3">
+        <f>LOOKUP(M8,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>19</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA8">
+      <c r="Q8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" s="23">
         <v>7</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="23">
         <v>7</v>
       </c>
-      <c r="AM8" s="5" t="s">
+      <c r="AM8" s="24" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3582,72 +4004,75 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3">
+        <f>LOOKUP(D9,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="3">
+        <f>LOOKUP(F9,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="5">
-        <v>199</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3">
+        <f>LOOKUP(J9,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="3">
+        <f>LOOKUP(L9,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="3">
+        <f>LOOKUP(M9,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA9">
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="23">
         <v>8</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AB9" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="23">
         <v>8</v>
       </c>
-      <c r="AM9" s="5" t="s">
+      <c r="AM9" s="24" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3655,134 +4080,140 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="3">
+        <f>LOOKUP(D10,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="3">
+        <f>LOOKUP(F10,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="3">
+        <v>166</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3">
+        <f>LOOKUP(J10,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="3">
+        <f>LOOKUP(L10,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="3">
+        <f>LOOKUP(M10,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="5">
-        <v>234</v>
-      </c>
-      <c r="H10" s="5">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3</v>
-      </c>
-      <c r="P10" s="5">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA10">
+      <c r="P10" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA10" s="23">
         <v>9</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AB10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AM10" s="17"/>
+      <c r="AM10" s="14"/>
     </row>
     <row r="11" spans="1:44" ht="31.5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3">
+        <f>LOOKUP(D11,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="3">
+        <f>LOOKUP(F11,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <f>LOOKUP(J11,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="3">
+        <f>LOOKUP(L11,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="3">
+        <f>LOOKUP(M11,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="5">
-        <v>170</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
+      <c r="P11" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA11" s="23">
         <v>10</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O11" s="5">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" s="24" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3790,66 +4221,69 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3">
+        <f>LOOKUP(D12,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="3">
+        <f>LOOKUP(F12,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="5">
-        <v>600</v>
-      </c>
-      <c r="H12" s="5">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <f>LOOKUP(J12,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="3">
+        <f>LOOKUP(L12,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="4"/>
+      <c r="N12" s="3">
+        <f>LOOKUP(M12,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="R12" s="5" t="s">
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="23">
         <v>11</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" s="24" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3857,66 +4291,69 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3">
+        <f>LOOKUP(D13,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3">
+        <f>LOOKUP(F13,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="3">
         <v>149</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="5">
-        <v>300</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>15</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O13" s="5">
-        <v>2</v>
-      </c>
-      <c r="P13" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="R13" s="5" t="s">
+      <c r="I13" s="3">
+        <f>LOOKUP(J13,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="3">
+        <f>LOOKUP(L13,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="3">
+        <f>LOOKUP(M13,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="23">
         <v>12</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AB13" s="24" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3924,66 +4361,69 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
+      <c r="B14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="3">
+        <f>LOOKUP(D14,$AM$2:$AM$9,$AL$2:$AL$9)</f>
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="3">
+        <f>LOOKUP(F14,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="5">
-        <v>4100</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="3">
+        <v>2190</v>
+      </c>
+      <c r="H14" s="3">
         <v>30</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="3">
+        <f>LOOKUP(J14,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3">
+        <f>LOOKUP(L14,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="M14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="3">
+        <f>LOOKUP(M14,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>4</v>
       </c>
-      <c r="P14" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" s="5" t="s">
+      <c r="P14" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AA14">
+      <c r="S14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA14" s="23">
         <v>13</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB14" s="24" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3991,1480 +4431,1531 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
+      <c r="B15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="3">
+        <f>LOOKUP(D15,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="3">
+        <f>LOOKUP(F15,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="3">
+        <v>510</v>
+      </c>
+      <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="5">
-        <v>385</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="I15" s="3">
+        <f>LOOKUP(J15,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>10</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="3">
+        <f>LOOKUP(L15,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="M15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="3">
+        <f>LOOKUP(M15,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3">
         <v>17</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="Q15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AB15" s="17"/>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="S15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15" s="14"/>
+    </row>
+    <row r="16" spans="1:44" ht="31.5">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="3">
+        <f>LOOKUP(D16,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="3">
+        <f>LOOKUP(F16,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="5">
-        <v>280</v>
-      </c>
-      <c r="H16" s="5">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="G16" s="3">
+        <v>385</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <f>LOOKUP(J16,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="3">
+        <f>LOOKUP(L16,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O16" s="5">
-        <v>3</v>
-      </c>
-      <c r="P16" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="R16" s="5" t="s">
+      <c r="M16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="3">
+        <f>LOOKUP(M16,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="31.5">
+      <c r="S16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="31.5">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3">
+        <f>LOOKUP(D17,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="3">
+        <f>LOOKUP(F17,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="5">
-        <v>1700</v>
-      </c>
-      <c r="H17" s="5">
-        <v>25</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3">
+        <f>LOOKUP(J17,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="3">
+        <f>LOOKUP(L17,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" si="4"/>
+      <c r="N17" s="3">
+        <f>LOOKUP(M17,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O17" s="5">
-        <v>4</v>
-      </c>
-      <c r="P17" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="O17" s="3">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="31.5">
+      <c r="S17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="31.5">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="3">
+        <f>LOOKUP(D18,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3">
+        <f>LOOKUP(F18,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="5">
-        <v>510</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="2"/>
+      <c r="G18" s="3">
+        <v>177</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
+        <f>LOOKUP(J18,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>10</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="3">
+        <f>LOOKUP(L18,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="4"/>
+      <c r="N18" s="3">
+        <f>LOOKUP(M18,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O18" s="5">
-        <v>2</v>
-      </c>
-      <c r="P18" s="5">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="R18" s="5" t="s">
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="31.5">
+      <c r="S18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="31.5">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="3">
+        <f>LOOKUP(D19,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="3">
+        <f>LOOKUP(F19,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="5">
-        <v>510</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="2"/>
+      <c r="G19" s="3">
+        <v>292</v>
+      </c>
+      <c r="H19" s="3">
+        <v>25</v>
+      </c>
+      <c r="I19" s="3">
+        <f>LOOKUP(J19,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>10</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="4"/>
+      <c r="K19" s="3">
+        <f>LOOKUP(L19,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="3">
+        <f>LOOKUP(M19,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
         <v>3</v>
       </c>
-      <c r="O19" s="5">
-        <v>2</v>
-      </c>
-      <c r="P19" s="5">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="R19" s="5" t="s">
+      <c r="P19" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="47.25">
+      <c r="S19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="31.5">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="3">
+        <f>LOOKUP(D20,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="3">
+        <f>LOOKUP(F20,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="5">
-        <v>2190</v>
-      </c>
-      <c r="H20" s="5">
-        <v>30</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <f>LOOKUP(J20,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="3">
+        <f>LOOKUP(L20,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="5">
-        <f t="shared" si="4"/>
+      <c r="N20" s="3">
+        <f>LOOKUP(M20,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="R20" s="5" t="s">
+      <c r="P20" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="31.5">
+      <c r="S20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="31.5">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
+      <c r="B21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="3">
+        <f>LOOKUP(D21,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="3">
+        <f>LOOKUP(F21,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="3">
+        <v>800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3">
+        <f>LOOKUP(J21,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>13</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="3">
+        <f>LOOKUP(L21,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="3">
+        <f>LOOKUP(M21,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="5">
-        <v>177</v>
-      </c>
-      <c r="H21" s="5">
-        <v>15</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O21" s="5">
-        <v>3</v>
-      </c>
-      <c r="P21" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="R21" s="5" t="s">
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="31.5">
+      <c r="S21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="31.5">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
+      <c r="B22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="3">
+        <f>LOOKUP(D22,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="3">
+        <f>LOOKUP(F22,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <f>LOOKUP(J22,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="3">
+        <f>LOOKUP(L22,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="3">
+        <f>LOOKUP(M22,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>6</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="5">
-        <v>100</v>
-      </c>
-      <c r="H22" s="5">
-        <v>5</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O22" s="5">
-        <v>4</v>
-      </c>
-      <c r="P22" s="5">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="R22" s="5" t="s">
+      <c r="Q22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="31.5">
+      <c r="S22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="31.5">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="3">
+        <f>LOOKUP(D23,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="3">
+        <f>LOOKUP(F23,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="5">
-        <v>640</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="3">
+        <v>510</v>
+      </c>
+      <c r="H23" s="3">
         <v>5</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="2"/>
+      <c r="I23" s="3">
+        <f>LOOKUP(J23,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>10</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="3">
+        <f>LOOKUP(L23,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" si="4"/>
+      <c r="N23" s="3">
+        <f>LOOKUP(M23,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O23" s="5">
-        <v>5</v>
-      </c>
-      <c r="P23" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="R23" s="5" t="s">
+      <c r="O23" s="3">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="31.5">
+      <c r="S23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="31.5">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="3">
+        <f>LOOKUP(D24,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="3">
+        <f>LOOKUP(F24,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="5">
-        <v>800</v>
-      </c>
-      <c r="H24" s="5">
-        <v>25</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="G24" s="3">
+        <v>234</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
+        <f>LOOKUP(J24,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>7</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="3">
+        <f>LOOKUP(L24,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="4"/>
+      <c r="N24" s="3">
+        <f>LOOKUP(M24,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O24" s="5">
-        <v>2</v>
-      </c>
-      <c r="P24" s="5">
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
         <v>17</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" s="5" t="s">
+      <c r="Q24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="31.5">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="3">
+        <f>LOOKUP(D25,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3">
+        <f>LOOKUP(F25,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="5">
-        <v>3500</v>
-      </c>
-      <c r="H25" s="5">
-        <v>30</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L25" s="5" t="s">
+      <c r="G25" s="3">
+        <v>280</v>
+      </c>
+      <c r="H25" s="3">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3">
+        <f>LOOKUP(J25,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="3">
+        <f>LOOKUP(L25,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="4"/>
+      <c r="M25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="3">
+        <f>LOOKUP(M25,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
         <v>3</v>
       </c>
-      <c r="O25" s="5">
-        <v>5</v>
-      </c>
-      <c r="P25" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="R25" s="5" t="s">
+      <c r="P25" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="31.5">
+      <c r="S25" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="31.5">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
+      <c r="B26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="3">
+        <f>LOOKUP(D26,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="3">
+        <f>LOOKUP(F26,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>25</v>
+      </c>
+      <c r="I26" s="3">
+        <f>LOOKUP(J26,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="3">
+        <f>LOOKUP(L26,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="3">
+        <f>LOOKUP(M26,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2</v>
+      </c>
+      <c r="P26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="5">
-        <v>400</v>
-      </c>
-      <c r="H26" s="5">
-        <v>15</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>4</v>
-      </c>
-      <c r="P26" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R26" s="5" t="s">
+      <c r="Q26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="31.5">
+    <row r="27" spans="1:19" ht="31.5">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="3">
+        <f>LOOKUP(D27,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="3">
+        <f>LOOKUP(F27,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="5">
-        <v>292</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H27" s="3">
         <v>25</v>
       </c>
-      <c r="I27" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="I27" s="3">
+        <f>LOOKUP(J27,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="3">
+        <f>LOOKUP(L27,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="M27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" s="3">
+        <f>LOOKUP(M27,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="P27" s="5">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R27" s="5" t="s">
+      <c r="O27" s="3">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="31.5">
+      <c r="S27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="31.5">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="3">
+        <f>LOOKUP(D28,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="3">
+        <f>LOOKUP(F28,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="5">
-        <v>600</v>
-      </c>
-      <c r="H28" s="5">
-        <v>15</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="G28" s="3">
+        <v>640</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3">
+        <f>LOOKUP(J28,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="3">
+        <f>LOOKUP(L28,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="4"/>
+      <c r="N28" s="3">
+        <f>LOOKUP(M28,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O28" s="5">
-        <v>2</v>
-      </c>
-      <c r="P28" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="R28" s="5" t="s">
+      <c r="O28" s="3">
+        <v>5</v>
+      </c>
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="31.5">
+      <c r="S28" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="31.5">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
+      <c r="B29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="3">
+        <f>LOOKUP(D29,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="3">
+        <f>LOOKUP(F29,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="3">
+        <v>600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3">
+        <f>LOOKUP(J29,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="5">
-        <v>140</v>
-      </c>
-      <c r="H29" s="5">
-        <v>20</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="5" t="s">
+      <c r="J29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="3">
+        <f>LOOKUP(L29,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="5">
-        <f t="shared" si="4"/>
+      <c r="N29" s="3">
+        <f>LOOKUP(M29,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O29" s="5">
-        <v>3</v>
-      </c>
-      <c r="P29" s="5">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="R29" s="5" t="s">
+      <c r="O29" s="3">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="31.5">
+      <c r="S29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="31.5">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
+      <c r="B30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="3">
+        <f>LOOKUP(D30,$AM$2:$AM$9,$AL$2:$AL$9)</f>
         <v>3</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="3">
+        <f>LOOKUP(F30,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="5">
-        <v>50</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="3">
+        <v>86</v>
+      </c>
+      <c r="H30" s="3">
         <v>5</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="2"/>
+      <c r="I30" s="3">
+        <f>LOOKUP(J30,$AB$2:$AB$14,$AA$2:$AA$14)</f>
         <v>9</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="K30" s="3">
+        <f>LOOKUP(L30,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="4"/>
+      <c r="N30" s="3">
+        <f>LOOKUP(M30,$X$2:$X$4,$W$2:$W$4)</f>
         <v>3</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>4</v>
       </c>
-      <c r="P30" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="R30" s="5" t="s">
+      <c r="P30" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="31.5">
+    <row r="31" spans="1:19" ht="31.5">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="B31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3">
+        <f>LOOKUP(D31,$AM$2:$AM$9,$AL$2:$AL$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="3">
+        <f>LOOKUP(F31,$AR$2,$AQ$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="5">
-        <v>600</v>
-      </c>
-      <c r="H31" s="5">
-        <v>15</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="2"/>
+      <c r="G31" s="3">
+        <v>123</v>
+      </c>
+      <c r="H31" s="3">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3">
+        <f>LOOKUP(J31,$AB$2:$AB$14,$AA$2:$AA$14)</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="3">
+        <f>LOOKUP(L31,$AH$2:$AH$3,$AG$2:$AG$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" s="3">
+        <f>LOOKUP(M31,$X$2:$X$4,$W$2:$W$4)</f>
+        <v>2</v>
+      </c>
+      <c r="O31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O31" s="5">
-        <v>5</v>
-      </c>
-      <c r="P31" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="R31" s="5" t="s">
+      <c r="P31" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
+    <row r="32" spans="1:19">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="AM2:AM54">
-    <sortCondition ref="AM1"/>
+  <sortState ref="A2:R54">
+    <sortCondition ref="B2:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5472,9 +5963,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -5488,993 +5981,1101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
         <v>344288</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <f>LOOKUP(E2,$L$2,$K$2)</f>
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
         <v>614164</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D37" si="0">LOOKUP(E3,$L$2,$K$2)</f>
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>30</v>
       </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="21">
         <v>394242</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>43</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="21">
         <v>660540</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>25</v>
       </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="21">
         <v>125837</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>40</v>
       </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="21">
         <v>125703</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>49</v>
       </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="21">
         <v>625283</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>46</v>
       </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="21">
         <v>614611</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>50</v>
       </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="21">
         <v>454311</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>19</v>
       </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="21">
         <v>660007</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>19</v>
       </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="21">
         <v>603036</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>4</v>
       </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="21">
         <v>450983</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>26</v>
       </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="21">
         <v>394782</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>3</v>
       </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="21">
         <v>603002</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>28</v>
       </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="21">
         <v>450558</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="21">
         <v>394060</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="21">
         <v>410661</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="21">
         <v>625590</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="21">
         <v>625683</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="21">
         <v>400562</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="21">
         <v>614510</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="21">
         <v>410542</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="21">
         <v>620839</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="21">
         <v>443890</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="21">
         <v>603379</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="21">
         <v>603721</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="21">
         <v>410172</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="21">
         <v>420151</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="21">
         <v>125061</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="21">
         <v>630370</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="21">
         <v>614753</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="21">
         <v>426030</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="21">
         <v>450375</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="21">
         <v>625560</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="21">
         <v>630201</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="21">
         <v>190949</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="6">
         <v>26</v>
       </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
